--- a/results/实验1/fedavg_results.xlsx
+++ b/results/实验1/fedavg_results.xlsx
@@ -47,8 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,10 +426,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,15 +444,10 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
@@ -461,16 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.301727831363678</v>
+        <v>2.321721246242523</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.125</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="3">
@@ -478,15 +472,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.838087811470032</v>
+        <v>3.56497654914856</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4.46510124206543</v>
       </c>
       <c r="D3" t="n">
-        <v>6.632432222366333</v>
-      </c>
-      <c r="E3" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -495,15 +486,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.868774116039276</v>
+        <v>3.544020721912384</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>20.17555499076843</v>
       </c>
       <c r="D4" t="n">
-        <v>11.83829760551453</v>
-      </c>
-      <c r="E4" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -518,14 +506,194 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Client 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Client 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Client 2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Client 3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Client 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>avg_loss</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>avg_loss</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>avg_loss</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>avg_loss</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>avg_loss</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03010357392078731</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02990516963967821</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2616998176369816</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2242902084160596</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4290929592773318</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03008699038968189</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03038579926709644</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2507889162003994</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2252924911584705</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.460863776281476</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/实验1/fedavg_results.xlsx
+++ b/results/实验1/fedavg_results.xlsx
@@ -427,7 +427,7 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.321721246242523</v>
+        <v>2.334150681495666</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.096</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.56497654914856</v>
+        <v>2.98801255941391</v>
       </c>
       <c r="C3" t="n">
-        <v>4.46510124206543</v>
+        <v>31.4578914642334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +486,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.544020721912384</v>
+        <v>3.051766624450684</v>
       </c>
       <c r="C4" t="n">
-        <v>20.17555499076843</v>
+        <v>62.73343873023987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.253</v>
       </c>
     </row>
   </sheetData>
@@ -515,11 +515,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
@@ -621,31 +621,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03010357392078731</v>
+        <v>0.03391960922075668</v>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02990516963967821</v>
+        <v>0.02710839253981248</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2616998176369816</v>
+        <v>0.2623494244553149</v>
       </c>
       <c r="G4" t="n">
         <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2242902084160596</v>
+        <v>0.1762815296486951</v>
       </c>
       <c r="I4" t="n">
         <v>0.01</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4290929592773318</v>
+        <v>0.3282713232934475</v>
       </c>
       <c r="K4" t="n">
         <v>0.01</v>
@@ -656,31 +656,31 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03008699038968189</v>
+        <v>0.0338666874197952</v>
       </c>
       <c r="C5" t="n">
         <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03038579926709644</v>
+        <v>0.02728923877613852</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2507889162003994</v>
+        <v>0.2764571379870177</v>
       </c>
       <c r="G5" t="n">
         <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2252924911584705</v>
+        <v>0.1911892692418769</v>
       </c>
       <c r="I5" t="n">
         <v>0.01</v>
       </c>
       <c r="J5" t="n">
-        <v>0.460863776281476</v>
+        <v>0.2934486846346408</v>
       </c>
       <c r="K5" t="n">
         <v>0.01</v>
